--- a/Prahlad Friends League.xlsx
+++ b/Prahlad Friends League.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="23">
   <si>
     <t>Stiff Armed and Dangerous</t>
   </si>
@@ -52,22 +52,25 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>3 - 3 - 0</t>
-  </si>
-  <si>
-    <t>4 - 2 - 0</t>
-  </si>
-  <si>
-    <t>1 - 5 - 0</t>
-  </si>
-  <si>
-    <t>2 - 4 - 0</t>
-  </si>
-  <si>
-    <t>5 - 1 - 0</t>
-  </si>
-  <si>
-    <t>0 - 6 - 0</t>
+    <t>3 - 4 - 0</t>
+  </si>
+  <si>
+    <t>4 - 3 - 0</t>
+  </si>
+  <si>
+    <t>1 - 6 - 0</t>
+  </si>
+  <si>
+    <t>2 - 5 - 0</t>
+  </si>
+  <si>
+    <t>5 - 2 - 0</t>
+  </si>
+  <si>
+    <t>0 - 7 - 0</t>
+  </si>
+  <si>
+    <t>6 - 1 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -492,13 +495,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -510,7 +513,7 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -530,7 +533,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -545,7 +548,7 @@
         <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
         <v>15</v>
@@ -559,16 +562,16 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -580,10 +583,10 @@
         <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -591,34 +594,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,31 +632,31 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -685,7 +688,7 @@
         <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
         <v>11</v>
@@ -702,10 +705,10 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -720,7 +723,7 @@
         <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
         <v>11</v>
@@ -766,34 +769,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -801,34 +804,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
         <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -849,10 +852,10 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -863,10 +866,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -874,10 +877,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -888,13 +891,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -902,13 +905,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -919,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -930,13 +933,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -947,10 +950,10 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -961,7 +964,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -975,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -989,10 +992,10 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1013,13 +1016,13 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1027,16 +1030,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="D2">
         <v>-1.5</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1044,16 +1047,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="D3">
-        <v>-1.5</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1061,16 +1064,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>-0.1000000000000001</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1081,10 +1084,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D5">
-        <v>0.2999999999999998</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -1095,16 +1098,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D6">
-        <v>0.2999999999999998</v>
+        <v>-1.3</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1112,13 +1115,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D7">
-        <v>0.1000000000000001</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -1132,10 +1135,10 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -1146,13 +1149,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D9">
-        <v>-0.2999999999999998</v>
+        <v>-0.1000000000000001</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -1163,16 +1166,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="D10">
-        <v>0.2000000000000002</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1183,13 +1186,13 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1210,10 +1213,10 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1227,7 +1230,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1238,7 +1241,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -1252,10 +1255,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1263,13 +1266,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1277,10 +1280,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -1305,13 +1308,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1319,10 +1322,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -1333,7 +1336,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>-11</v>
@@ -1347,13 +1350,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
